--- a/src/bom.xlsx
+++ b/src/bom.xlsx
@@ -12,14 +12,15 @@
     <workbookView xWindow="245" yWindow="245" windowWidth="18965" windowHeight="7402"/>
   </bookViews>
   <sheets>
-    <sheet name="BOM" sheetId="2" r:id="rId1"/>
+    <sheet name="BOM" sheetId="3" r:id="rId1"/>
+    <sheet name="view" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
   <si>
     <t>Initail Screen</t>
   </si>
@@ -164,7 +165,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +223,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -348,7 +355,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -430,6 +437,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -740,9 +750,902 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N129"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.55"/>
+  <cols>
+    <col min="1" max="1" width="10.625" style="18" customWidth="1"/>
+    <col min="2" max="4" width="9" style="18"/>
+    <col min="5" max="5" width="10.5" style="18" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="29"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="27" customFormat="1" ht="12.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="27" customFormat="1" ht="12.25">
+      <c r="A4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="12.25">
+      <c r="A5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:14" ht="12.25">
+      <c r="A6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:14" ht="12.25">
+      <c r="A7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" ht="12.25">
+      <c r="A8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" ht="12.25">
+      <c r="A9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" ht="12.25">
+      <c r="A10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:14" ht="12.25">
+      <c r="A11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:14" ht="12.25">
+      <c r="A12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:14" ht="12.25">
+      <c r="A13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:14" ht="12.25">
+      <c r="A14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:14" ht="12.25">
+      <c r="A15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:14" ht="12.25">
+      <c r="A16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" ht="12.25">
+      <c r="A17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" ht="12.25">
+      <c r="A18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" ht="12.25">
+      <c r="A19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" ht="12.25">
+      <c r="A20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" ht="12.25">
+      <c r="A21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7" ht="12.25">
+      <c r="A22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7" ht="12.25">
+      <c r="A23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="1:7" ht="12.25">
+      <c r="A24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:7" ht="12.25">
+      <c r="A25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:7" ht="12.25">
+      <c r="A26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:7" ht="12.25">
+      <c r="A27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="1:7" ht="12.25">
+      <c r="A28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="1:7" ht="12.25">
+      <c r="A29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:7" ht="12.25">
+      <c r="A30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:7" ht="12.25">
+      <c r="A31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" spans="1:7" ht="12.25">
+      <c r="A32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="1:7" ht="12.25">
+      <c r="A33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:7" ht="12.25">
+      <c r="A34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="1:7" ht="12.25">
+      <c r="A35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" spans="1:7" ht="12.25">
+      <c r="A36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="1:7" ht="12.25">
+      <c r="A37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" spans="1:7" ht="12.25">
+      <c r="A38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="1:7" ht="12.25">
+      <c r="A39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" spans="1:7" ht="12.25">
+      <c r="A40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" spans="1:7" ht="12.25">
+      <c r="A41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="11"/>
+    </row>
+    <row r="42" spans="1:7" ht="12.25">
+      <c r="A42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="11"/>
+    </row>
+    <row r="43" spans="1:7" ht="12.25">
+      <c r="A43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="11"/>
+    </row>
+    <row r="44" spans="1:7" ht="12.25">
+      <c r="A44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="11"/>
+    </row>
+    <row r="45" spans="1:7" ht="12.25">
+      <c r="A45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="11"/>
+    </row>
+    <row r="46" spans="1:7" ht="12.25">
+      <c r="A46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="11"/>
+    </row>
+    <row r="47" spans="1:7" ht="12.25">
+      <c r="A47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="11"/>
+    </row>
+    <row r="48" spans="1:7" ht="12.25">
+      <c r="A48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="11"/>
+    </row>
+    <row r="49" spans="1:7" ht="12.25">
+      <c r="A49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="11"/>
+    </row>
+    <row r="50" spans="1:7" ht="12.25">
+      <c r="A50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="11"/>
+    </row>
+    <row r="51" spans="1:7" ht="12.25">
+      <c r="A51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="11"/>
+    </row>
+    <row r="52" spans="1:7" ht="12.25">
+      <c r="A52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="11"/>
+    </row>
+    <row r="53" spans="1:7" ht="12.25">
+      <c r="A53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="11"/>
+    </row>
+    <row r="54" spans="1:7" ht="12.25">
+      <c r="A54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="11"/>
+    </row>
+    <row r="55" spans="1:7" ht="12.25">
+      <c r="A55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="11"/>
+    </row>
+    <row r="56" spans="1:7" ht="12.25">
+      <c r="A56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="11"/>
+    </row>
+    <row r="57" spans="1:7" ht="12.25">
+      <c r="A57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="11"/>
+    </row>
+    <row r="58" spans="1:7" ht="12.25">
+      <c r="A58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="11"/>
+    </row>
+    <row r="59" spans="1:7" ht="12.25">
+      <c r="A59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="11"/>
+    </row>
+    <row r="60" spans="1:7" ht="12.25">
+      <c r="A60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="11"/>
+    </row>
+    <row r="61" spans="1:7" ht="12.25">
+      <c r="A61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="11"/>
+    </row>
+    <row r="62" spans="1:7" ht="12.25">
+      <c r="A62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="11"/>
+    </row>
+    <row r="63" spans="1:7" ht="12.25">
+      <c r="A63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="11"/>
+    </row>
+    <row r="64" spans="1:7" ht="12.25">
+      <c r="A64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="11"/>
+    </row>
+    <row r="65" spans="1:7" ht="12.25">
+      <c r="A65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="11"/>
+    </row>
+    <row r="66" spans="1:7" ht="12.25">
+      <c r="A66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="11"/>
+    </row>
+    <row r="67" spans="1:7" ht="12.25">
+      <c r="A67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="11"/>
+    </row>
+    <row r="68" spans="1:7" ht="12.25">
+      <c r="A68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="11"/>
+    </row>
+    <row r="69" spans="1:7" ht="12.25">
+      <c r="A69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="11"/>
+    </row>
+    <row r="70" spans="1:7" ht="12.25">
+      <c r="A70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="11"/>
+    </row>
+    <row r="71" spans="1:7" ht="12.25">
+      <c r="A71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="11"/>
+    </row>
+    <row r="72" spans="1:7" ht="12.25">
+      <c r="A72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="11"/>
+    </row>
+    <row r="73" spans="1:7" ht="12.25">
+      <c r="A73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="11"/>
+    </row>
+    <row r="74" spans="1:7" ht="12.25">
+      <c r="A74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="11"/>
+    </row>
+    <row r="75" spans="1:7" ht="12.25">
+      <c r="A75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="11"/>
+    </row>
+    <row r="76" spans="1:7" ht="12.25">
+      <c r="A76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="11"/>
+    </row>
+    <row r="77" spans="1:7" ht="12.25">
+      <c r="A77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="11"/>
+    </row>
+    <row r="78" spans="1:7" ht="12.25">
+      <c r="A78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="11"/>
+    </row>
+    <row r="79" spans="1:7" ht="12.25">
+      <c r="A79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="11"/>
+    </row>
+    <row r="80" spans="1:7" ht="12.25">
+      <c r="A80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="11"/>
+    </row>
+    <row r="81" spans="1:7" ht="12.25">
+      <c r="A81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="11"/>
+    </row>
+    <row r="82" spans="1:7" ht="12.25">
+      <c r="A82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="11"/>
+    </row>
+    <row r="83" spans="1:7" ht="12.25">
+      <c r="A83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="11"/>
+    </row>
+    <row r="84" spans="1:7" ht="12.25">
+      <c r="A84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="11"/>
+    </row>
+    <row r="85" spans="1:7" ht="12.25">
+      <c r="A85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="11"/>
+    </row>
+    <row r="86" spans="1:7" ht="12.25">
+      <c r="A86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="11"/>
+    </row>
+    <row r="87" spans="1:7" ht="12.25">
+      <c r="A87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="11"/>
+    </row>
+    <row r="88" spans="1:7" ht="12.25">
+      <c r="A88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="11"/>
+    </row>
+    <row r="89" spans="1:7" ht="12.25">
+      <c r="A89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="11"/>
+    </row>
+    <row r="90" spans="1:7" ht="12.25">
+      <c r="A90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="11"/>
+    </row>
+    <row r="91" spans="1:7" ht="12.25">
+      <c r="A91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="11"/>
+    </row>
+    <row r="92" spans="1:7" ht="12.25">
+      <c r="A92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="11"/>
+    </row>
+    <row r="93" spans="1:7" ht="12.25">
+      <c r="A93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="11"/>
+    </row>
+    <row r="94" spans="1:7" ht="12.25">
+      <c r="A94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="11"/>
+    </row>
+    <row r="95" spans="1:7" ht="12.25">
+      <c r="A95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="11"/>
+    </row>
+    <row r="96" spans="1:7" ht="12.25">
+      <c r="A96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="11"/>
+    </row>
+    <row r="97" spans="1:7" ht="12.25">
+      <c r="A97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="11"/>
+    </row>
+    <row r="98" spans="1:7" ht="12.25">
+      <c r="A98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="11"/>
+    </row>
+    <row r="99" spans="1:7" ht="12.25">
+      <c r="A99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="11"/>
+    </row>
+    <row r="100" spans="1:7" ht="12.25">
+      <c r="A100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="11"/>
+    </row>
+    <row r="101" spans="1:7" ht="12.25">
+      <c r="A101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="11"/>
+    </row>
+    <row r="102" spans="1:7" ht="12.25">
+      <c r="A102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="11"/>
+    </row>
+    <row r="103" spans="1:7" ht="12.25">
+      <c r="A103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="11"/>
+    </row>
+    <row r="104" spans="1:7" ht="12.25">
+      <c r="A104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="11"/>
+    </row>
+    <row r="105" spans="1:7" ht="12.25">
+      <c r="A105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="11"/>
+    </row>
+    <row r="106" spans="1:7" ht="12.25">
+      <c r="A106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="11"/>
+    </row>
+    <row r="107" spans="1:7" ht="12.25">
+      <c r="A107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="11"/>
+    </row>
+    <row r="108" spans="1:7" ht="12.25">
+      <c r="A108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="11"/>
+    </row>
+    <row r="109" spans="1:7" ht="12.25">
+      <c r="A109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="11"/>
+    </row>
+    <row r="110" spans="1:7" ht="12.25">
+      <c r="A110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="11"/>
+    </row>
+    <row r="111" spans="1:7" ht="12.25">
+      <c r="A111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="11"/>
+    </row>
+    <row r="112" spans="1:7" ht="12.25">
+      <c r="A112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="11"/>
+    </row>
+    <row r="113" spans="1:7" ht="12.25">
+      <c r="A113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="11"/>
+    </row>
+    <row r="114" spans="1:7" ht="12.25">
+      <c r="A114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="11"/>
+    </row>
+    <row r="115" spans="1:7" ht="12.25">
+      <c r="A115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="11"/>
+    </row>
+    <row r="116" spans="1:7" ht="12.25">
+      <c r="A116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="11"/>
+    </row>
+    <row r="117" spans="1:7" ht="12.25">
+      <c r="A117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="11"/>
+    </row>
+    <row r="118" spans="1:7" ht="12.25">
+      <c r="A118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="11"/>
+    </row>
+    <row r="119" spans="1:7" ht="12.25">
+      <c r="A119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="11"/>
+    </row>
+    <row r="120" spans="1:7" ht="12.25">
+      <c r="A120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="11"/>
+    </row>
+    <row r="121" spans="1:7" ht="12.25">
+      <c r="A121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="11"/>
+    </row>
+    <row r="122" spans="1:7" ht="12.25">
+      <c r="A122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="11"/>
+    </row>
+    <row r="123" spans="1:7" ht="12.25">
+      <c r="A123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="11"/>
+    </row>
+    <row r="124" spans="1:7" ht="12.25">
+      <c r="A124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="11"/>
+    </row>
+    <row r="125" spans="1:7" ht="12.25">
+      <c r="A125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="11"/>
+    </row>
+    <row r="126" spans="1:7" ht="12.25">
+      <c r="A126" s="9"/>
+    </row>
+    <row r="127" spans="1:7" ht="12.25">
+      <c r="A127" s="9"/>
+    </row>
+    <row r="128" spans="1:7" ht="12.25">
+      <c r="A128" s="9"/>
+    </row>
+    <row r="129" spans="1:1" ht="12.25">
+      <c r="A129" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="I1:J2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -770,16 +1673,16 @@
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
       <c r="J1" s="17"/>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28" t="s">
+      <c r="L1" s="29"/>
+      <c r="M1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="19"/>
@@ -792,12 +1695,12 @@
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
       <c r="J2" s="24"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28" t="s">
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="28"/>
+      <c r="N2" s="29"/>
       <c r="O2" s="25"/>
       <c r="P2" s="26" t="s">
         <v>5</v>
